--- a/biology/Botanique/Liste_des_arbres_remarquables_de_Belgique/Liste_des_arbres_remarquables_de_Belgique.xlsx
+++ b/biology/Botanique/Liste_des_arbres_remarquables_de_Belgique/Liste_des_arbres_remarquables_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste, non exhaustive, recense les arbres remarquables de Belgique, soit : 
 parce qu'ils battent des records de dimensions (hauteur, circonférence...) ou d'âge ;
@@ -516,16 +528,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wallonie
-Province du Brabant wallon
-Le charme commun (Carpinus betulus L. ) et l'érable plane (Acer platanoides) du parc de Wisterzée à Court-Saint-Étienne.
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Province du Brabant wallon</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le charme commun (Carpinus betulus L. ) et l'érable plane (Acer platanoides) du parc de Wisterzée à Court-Saint-Étienne.
 Le chêne pédonculé (Quercus robur), le hêtre (Fagus sylvatica) et les séquoias géants (Sequoiadendron giganteum) du parc du château Solvay de La Hulpe.
 l'if (Taxus baccata) du parc du château de Braine-le-Château.
 Le marronnier commun (Aesculus hippocastanum) de Nivelles
 Le robinier faux-acacia (Robinia pseudoacacia) du parc Jules Descampe à Waterloo.
-Les six charmes communs (Carpinus betulus L. ) entourant la Chapelle Notre-Dame-de-Bon-Secours, Chemin des Deux Fermes  à Rosières.
-Province de Hainaut
-L'ailante glanduleux Ailanthus altissima) et le cyprès chauve (Taxodium distichum) du parc du château de Marchienne à Harveng.
+Les six charmes communs (Carpinus betulus L. ) entourant la Chapelle Notre-Dame-de-Bon-Secours, Chemin des Deux Fermes  à Rosières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Province de Hainaut</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'ailante glanduleux Ailanthus altissima) et le cyprès chauve (Taxodium distichum) du parc du château de Marchienne à Harveng.
 Le chêne, arbre à loques, arbre fétiche situé prés de la chapelle Notre-Dame de l'Arbre au Puit, à Stambruges
 Le catalpa (Catalpa bignonioides), les chênes pédonculés (Quercus robur), le ginkgo pleureur (ginkgo biloba 'Pendula'), le merisier (Prunus avium) et le pin noir d'Autriche (Pinus nigra) du parc du château d'Enghien.
 Le catalpa doré (Catalpa bignonioides 'Aurea) et le Frêne commun (Fraxinus excelsior) de Le Rœulx.
@@ -543,9 +601,47 @@
 Le tilleul à grandes feuilles (Tilia platyphyllos) de Bailièvre.
 Le tilleul à petites feuilles (Tilia cordata) de Anvaing  : déraciné par une tempête le 11 mai 2007.
 Le tilleul à petites feuilles (Tilia cordata) de (Braffe).
-Le tilleul à trois étages (Tilia platyphyllos) de Macon.
-Province de Liège
-L'arbre pingouin d'Hermée (Rue Haie martin).
+Le tilleul à trois étages (Tilia platyphyllos) de Macon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Province de Liège</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'arbre pingouin d'Hermée (Rue Haie martin).
 Le bouleau de Limbourg (2,62 m en 1991).
 Le châtaignier de la ferme Fabri à Liège
 Le cèdre à encens (Calocedrus decurrens) à Domaine du Rond-Chêne à Esneux
@@ -570,9 +666,47 @@
 Le tulipier de Virginie (Liriodendron tulipifera) du jardin du château de Modave
 L’alignement de châtaigniers communs multiséculaires (Castanea sativa) de Marchin.
 L’alignement de châtaigniers (Castanea sativa) du château de Aineffe.
-Le séquoia géant du Château Bleu, à Trooz (7,8 m et 44,60 m de hauteur).
-Province de Luxembourg
-L'arbre caramel (Cercidiphyllum japonicum), le chêne à feuille de châtaignier (Quercus castaneifolia),  le frêne commun (Fraxinus excelsior), le frêne à fleurs 'Rotundifolia' (Fraxinus ornus 'rotundifolia'), le métaséquioa (Metasequoia glyptostroboides), le noisetier de chine (Corylus chinensis), le noyer de mandchourie (Juglans mandshurica), l'Oxydendron arboreum, le sapin de l'Orégon (Abies procera), les bouleaux, les érables, les magnolias et les tulipiers remarquables de l'arboretum Robert Lenoir à Rendeux.
+Le séquoia géant du Château Bleu, à Trooz (7,8 m et 44,60 m de hauteur).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Province de Luxembourg</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'arbre caramel (Cercidiphyllum japonicum), le chêne à feuille de châtaignier (Quercus castaneifolia),  le frêne commun (Fraxinus excelsior), le frêne à fleurs 'Rotundifolia' (Fraxinus ornus 'rotundifolia'), le métaséquioa (Metasequoia glyptostroboides), le noisetier de chine (Corylus chinensis), le noyer de mandchourie (Juglans mandshurica), l'Oxydendron arboreum, le sapin de l'Orégon (Abies procera), les bouleaux, les érables, les magnolias et les tulipiers remarquables de l'arboretum Robert Lenoir à Rendeux.
 L'Aulne glutineux (Alnus glutinosa) de Porcheresse (Daverdisse).
 Le charme commun (Carpinus betulus L. ) de Cugnon.
 Le hêtre commun (Fagus sylvatica) de Bonnerue (8 m de tour à 1,50 m du sol en 2007).
@@ -580,9 +714,47 @@
 Le hêtre commun (Fagus sylvatica) de la Croix Saint-Martin à Nisramont (5,62 m de tour à 1,50 m du sol en 2010).
 Le tilleul commun (Tilia ×europaea) de Sainte-Cécile (7,39 m de tour à 1,50 m du sol en 2000).
 Le tilleul à petites feuilles (Tilia cordata) de Guerlange.
-Le tilleul de Chantemelle
-Province de Namur
-le chataignier du château de Franc-Waret
+Le tilleul de Chantemelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wallonie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Province de Namur</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le chataignier du château de Franc-Waret
 Le chêne pédonculé (Quercus robur) dans le parc du château de Ferage.
 Le chêne pédonculé (Quercus robur) millénaire de Liernu.
 Le sophora du Japon (Styphnolobium japonicum) de Hastière-Lavaux.
@@ -593,62 +765,287 @@
 le tilleul de Maibelle
 Le tilleul du cimetière de Méan
 Les tilleuls de la chapelle Notre-Dame du Bon Secours à Oizy
-Le Vieux Chêne de Presgaux
-Bruxelles
-Les chênes pédonculés (Quercus robur), les hêtres (Fagus sylvatica), les merisiers (Prunus avium) et les pins noir d'Autriche (Pinus nigra) remarquables des étangs du Bois de la Cambre à Bruxelles.
+Le Vieux Chêne de Presgaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bruxelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les chênes pédonculés (Quercus robur), les hêtres (Fagus sylvatica), les merisiers (Prunus avium) et les pins noir d'Autriche (Pinus nigra) remarquables des étangs du Bois de la Cambre à Bruxelles.
  Le hêtre pourpre de l'avenue Ernest Cambier à Schaerbeek. : abattu au cours des années 1990.
 Le platane à feuilles d'érable de la rue d'Hoogvorst à Schaerbeek.
 Le platane d'Orient du parc Léopold à Bruxelles-ville.
-Le séquoïa géant du parc de Woluwe, à Woluwe-Saint-Pierre (plus gros arbre de Bruxelles avec 6,80 m de tour à 1,5 m du sol) .
-Flandre
-Province d'Anvers
-L'aulne glutineux (Alnus glutinosa) de Wuustwezel (±11 m à 1 m du sol en 1977).
+Le séquoïa géant du parc de Woluwe, à Woluwe-Saint-Pierre (plus gros arbre de Bruxelles avec 6,80 m de tour à 1,5 m du sol) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Flandre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Province d'Anvers</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'aulne glutineux (Alnus glutinosa) de Wuustwezel (±11 m à 1 m du sol en 1977).
 Le châtaignier (Castanea sativa) du château de Blaasveld (7,40 m en 1977).
-Le pin sylvestre de Wechelderzande : l'arbre des huit* béatitudes. *: plus que sept.
-Province du Brabant flamand
-Les cèdres du Liban (Cedrus libani Rich. A.) du château de Humbeek (visible depuis la route).
+Le pin sylvestre de Wechelderzande : l'arbre des huit* béatitudes. *: plus que sept.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Flandre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Province du Brabant flamand</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les cèdres du Liban (Cedrus libani Rich. A.) du château de Humbeek (visible depuis la route).
 L'Alisier blanc (Sorbus aria),  le châtaignier américain (Castanea dentata), l'érable jaspé de rouge (Acer capillipes), les cèdres à encens (Calocedrus decurrens) et les sapins de Vancouver (Calocedrus decurrens) de l'arboretum de Tervueren.
 La cépée d'érable de Lubbeek (7,80 m à 1 mètre).
-La cépée de platane du château de Boutersem (9,23 m à 1,50 m en 2009)
-Province de Flandre-Occidentale
-Le hêtre commun (Fagus sylvatica) du parc de Furnes.
+La cépée de platane du château de Boutersem (9,23 m à 1,50 m en 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Flandre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Province de Flandre-Occidentale</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le hêtre commun (Fagus sylvatica) du parc de Furnes.
 Le saule pleureur (Salix babylonica) du cimetière communal de Wervik
-Le pin noir (Pinus nigra) du parc Beisbrouck à Sint-Andries (Bruges).
-Province de Flandre-Orientale
-Les marronniers (Aesculus hippocastanum) du château de Schouwbroek (Vinderhoute) (9,08 m à 1,50 m en 2003 )
-Province de Limbourg
-Le chêne pédonculé de Lummen.
+Le pin noir (Pinus nigra) du parc Beisbrouck à Sint-Andries (Bruges).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Flandre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Province de Flandre-Orientale</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les marronniers (Aesculus hippocastanum) du château de Schouwbroek (Vinderhoute) (9,08 m à 1,50 m en 2003 )</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste par situation géographique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Flandre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Province de Limbourg</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le chêne pédonculé de Lummen.
 Le platane et le séquoia du château de Hekt.
 Le tilleul à grandes feuilles (Tilia platyphyllos) de l'église de Russon
 Le tilleul d'Overpelt (8,90 m à 1,50 m en 2009)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_arbres_remarquables_de_Belgique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_arbres_remarquables_de_Belgique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Arbres d'exception méconnus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le châtaignier tri-centenaire de Momalle (Castanea sativa) (6,18 m à 1,50 m du sol en 2009) (Province de Liège).
 Le châtaignier (Castanea sativa) du château de Bleret (Province de Liège).
